--- a/Data_processing/mic_size_figure.xlsx
+++ b/Data_processing/mic_size_figure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hyu-my.sharepoint.com/personal/kng643_hanyang_ac_kr/Documents/대학원/과제/IITP/마이크/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="139" documentId="8_{122917AE-AA8C-4220-BFDE-24B1A718AC16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BB731DFB-F982-4A1E-A105-BCA49F0996EB}"/>
+  <xr:revisionPtr revIDLastSave="152" documentId="8_{122917AE-AA8C-4220-BFDE-24B1A718AC16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8AFC492F-173C-43ED-BE40-9E933CCE2932}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1755" windowWidth="29040" windowHeight="17640" xr2:uid="{E58704B0-5FBC-4F58-A2CF-B094C3EDE833}"/>
+    <workbookView xWindow="-21030" yWindow="4425" windowWidth="21600" windowHeight="12735" xr2:uid="{E58704B0-5FBC-4F58-A2CF-B094C3EDE833}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -112,38 +112,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0, 4.5004</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0, -4.5004</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.9190, 0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-5.9190, 0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.1121, 1.0993</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.1121, -1.0993</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-2.1121, 1.0993</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-2.1121, -1.0993</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>선형</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -177,6 +145,38 @@
   </si>
   <si>
     <t>0, -14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.9229, 0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0, 4.5033</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.8509, 3.4216</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3.8509, 3.4216</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5.9229, 0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3.8509, -3.4216</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0, -4.5033</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.8509, -3.4216</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F67F9D-5CB0-4402-8755-BD48546E49A1}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -642,11 +642,11 @@
         <v>2.82842712474619, 0</v>
       </c>
       <c r="C6" t="str">
-        <f>C$4*COS(360/C$3*$A6*PI()/180)&amp;", "&amp;C$4*SIN(360/C$3*$A6*PI()/180)</f>
+        <f t="shared" ref="C6:D12" si="0">C$4*COS(360/C$3*$A6*PI()/180)&amp;", "&amp;C$4*SIN(360/C$3*$A6*PI()/180)</f>
         <v>4, 0</v>
       </c>
       <c r="D6" t="str">
-        <f>D$4*COS(360/D$3*$A6*PI()/180)&amp;", "&amp;D$4*SIN(360/D$3*$A6*PI()/180)</f>
+        <f t="shared" si="0"/>
         <v>5.22625185950551, 0</v>
       </c>
     </row>
@@ -655,15 +655,15 @@
         <v>1</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" ref="B7:B9" si="0">$B$4*COS(360/$B$3*A7*PI()/180)&amp;", "&amp;$B$4*SIN(360/$B$3*A7*PI()/180)</f>
+        <f t="shared" ref="B7:B9" si="1">$B$4*COS(360/$B$3*A7*PI()/180)&amp;", "&amp;$B$4*SIN(360/$B$3*A7*PI()/180)</f>
         <v>1.73262156085221E-16, 2.82842712474619</v>
       </c>
       <c r="C7" t="str">
-        <f>C$4*COS(360/C$3*$A7*PI()/180)&amp;", "&amp;C$4*SIN(360/C$3*$A7*PI()/180)</f>
+        <f t="shared" si="0"/>
         <v>2, 3.46410161513775</v>
       </c>
       <c r="D7" t="str">
-        <f>D$4*COS(360/D$3*$A7*PI()/180)&amp;", "&amp;D$4*SIN(360/D$3*$A7*PI()/180)</f>
+        <f t="shared" si="0"/>
         <v>3.69551813004515, 3.69551813004515</v>
       </c>
     </row>
@@ -672,15 +672,15 @@
         <v>2</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.82842712474619, 3.46524312170443E-16</v>
       </c>
       <c r="C8" t="str">
-        <f>C$4*COS(360/C$3*$A8*PI()/180)&amp;", "&amp;C$4*SIN(360/C$3*$A8*PI()/180)</f>
+        <f t="shared" si="0"/>
         <v>-2, 3.46410161513775</v>
       </c>
       <c r="D8" t="str">
-        <f>D$4*COS(360/D$3*$A8*PI()/180)&amp;", "&amp;D$4*SIN(360/D$3*$A8*PI()/180)</f>
+        <f t="shared" si="0"/>
         <v>3.20146719531824E-16, 5.22625185950551</v>
       </c>
     </row>
@@ -689,15 +689,15 @@
         <v>3</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-5.19786468255664E-16, -2.82842712474619</v>
       </c>
       <c r="C9" t="str">
-        <f>C$4*COS(360/C$3*$A9*PI()/180)&amp;", "&amp;C$4*SIN(360/C$3*$A9*PI()/180)</f>
+        <f t="shared" si="0"/>
         <v>-4, 4.90059381963448E-16</v>
       </c>
       <c r="D9" t="str">
-        <f>D$4*COS(360/D$3*$A9*PI()/180)&amp;", "&amp;D$4*SIN(360/D$3*$A9*PI()/180)</f>
+        <f t="shared" si="0"/>
         <v>-3.69551813004515, 3.69551813004515</v>
       </c>
     </row>
@@ -706,11 +706,11 @@
         <v>4</v>
       </c>
       <c r="C10" t="str">
-        <f>C$4*COS(360/C$3*$A10*PI()/180)&amp;", "&amp;C$4*SIN(360/C$3*$A10*PI()/180)</f>
+        <f t="shared" si="0"/>
         <v>-2, -3.46410161513775</v>
       </c>
       <c r="D10" t="str">
-        <f>D$4*COS(360/D$3*$A10*PI()/180)&amp;", "&amp;D$4*SIN(360/D$3*$A10*PI()/180)</f>
+        <f t="shared" si="0"/>
         <v>-5.22625185950551, 6.40293439063647E-16</v>
       </c>
     </row>
@@ -719,11 +719,11 @@
         <v>5</v>
       </c>
       <c r="C11" t="str">
-        <f>C$4*COS(360/C$3*$A11*PI()/180)&amp;", "&amp;C$4*SIN(360/C$3*$A11*PI()/180)</f>
+        <f t="shared" si="0"/>
         <v>2, -3.46410161513775</v>
       </c>
       <c r="D11" t="str">
-        <f>D$4*COS(360/D$3*$A11*PI()/180)&amp;", "&amp;D$4*SIN(360/D$3*$A11*PI()/180)</f>
+        <f t="shared" si="0"/>
         <v>-3.69551813004515, -3.69551813004515</v>
       </c>
     </row>
@@ -732,11 +732,11 @@
         <v>6</v>
       </c>
       <c r="C12" t="str">
-        <f>C$4*COS(360/C$3*$A12*PI()/180)&amp;", "&amp;C$4*SIN(360/C$3*$A12*PI()/180)</f>
+        <f t="shared" si="0"/>
         <v>4, -9.80118763926896E-16</v>
       </c>
       <c r="D12" t="str">
-        <f>D$4*COS(360/D$3*$A12*PI()/180)&amp;", "&amp;D$4*SIN(360/D$3*$A12*PI()/180)</f>
+        <f t="shared" si="0"/>
         <v>-9.60440158595471E-16, -5.22625185950551</v>
       </c>
     </row>
@@ -790,7 +790,7 @@
         <v>9.2297999999999991</v>
       </c>
       <c r="D21">
-        <v>11.838100000000001</v>
+        <v>11.845800000000001</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -804,7 +804,7 @@
         <v>7.0178000000000003</v>
       </c>
       <c r="D22">
-        <v>9.0008999999999997</v>
+        <v>9.0067000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -826,7 +826,7 @@
         <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -840,7 +840,7 @@
         <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -854,7 +854,7 @@
         <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -868,7 +868,7 @@
         <v>16</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -879,7 +879,7 @@
         <v>17</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -890,7 +890,7 @@
         <v>18</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -898,7 +898,7 @@
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -906,7 +906,7 @@
         <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -922,7 +922,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -952,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D37" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -966,13 +966,13 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D38" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -980,13 +980,13 @@
         <v>2</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D39" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -994,13 +994,13 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D40" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1008,10 +1008,10 @@
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1019,10 +1019,10 @@
         <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1030,7 +1030,7 @@
         <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1038,7 +1038,7 @@
         <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
